--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Sura - Claims\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F103545-179D-4660-BB2C-D39CFF324113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,18 +81,9 @@
     <t>URL</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>31/03/2021</t>
-  </si>
-  <si>
     <t>aseguradosgw@gmail.com</t>
   </si>
   <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
-  </si>
-  <si>
     <t>29/10/2020</t>
   </si>
   <si>
@@ -99,12 +91,21 @@
   </si>
   <si>
     <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>24/06/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,10 +485,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -496,13 +497,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>11410004600</v>
+        <v>11111003007</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -511,7 +512,7 @@
         <v>32039201</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -522,10 +523,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -540,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -549,7 +550,7 @@
         <v>32039201</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -560,10 +561,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F103545-179D-4660-BB2C-D39CFF324113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27F919-B470-43BF-BC03-2A6A136FD39D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>24/06/2022</t>
+    <t>19/03/2021</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>11111003007</v>
+        <v>11111003014</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC27F919-B470-43BF-BC03-2A6A136FD39D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6B595-6686-4DEA-9663-3021E3364CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Usuario</t>
   </si>
@@ -84,9 +84,6 @@
     <t>aseguradosgw@gmail.com</t>
   </si>
   <si>
-    <t>29/10/2020</t>
-  </si>
-  <si>
     <t>i-preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
@@ -99,7 +96,19 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>19/03/2021</t>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111003116 </t>
+  </si>
+  <si>
+    <t>05/04/2021</t>
+  </si>
+  <si>
+    <t>11111003102</t>
+  </si>
+  <si>
+    <t>26/10/2021</t>
   </si>
 </sst>
 </file>
@@ -433,7 +442,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +494,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -496,17 +505,17 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>11111003014</v>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <v>32039201</v>
@@ -523,10 +532,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -534,14 +543,14 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>11111002745</v>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6B595-6686-4DEA-9663-3021E3364CDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D45DCE-ED6A-4164-AADE-CA6565DF2E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,16 +99,16 @@
     <t>12:00</t>
   </si>
   <si>
-    <t xml:space="preserve">11111003116 </t>
-  </si>
-  <si>
-    <t>05/04/2021</t>
-  </si>
-  <si>
-    <t>11111003102</t>
-  </si>
-  <si>
-    <t>26/10/2021</t>
+    <t>11111003115</t>
+  </si>
+  <si>
+    <t>30/04/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111003131 </t>
+  </si>
+  <si>
+    <t>09/04/2021</t>
   </si>
 </sst>
 </file>
@@ -442,14 +442,14 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -506,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D45DCE-ED6A-4164-AADE-CA6565DF2E0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA438DD-0B60-433C-8250-06FF2D645FB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,16 +99,16 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>11111003115</t>
-  </si>
-  <si>
-    <t>30/04/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">11111003131 </t>
   </si>
   <si>
     <t>09/04/2021</t>
+  </si>
+  <si>
+    <t>26/04/2021</t>
+  </si>
+  <si>
+    <t>11111003159</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>23</v>
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA438DD-0B60-433C-8250-06FF2D645FB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6F5CE9-C85A-490C-ABBF-A160C504609C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,12 +84,6 @@
     <t>aseguradosgw@gmail.com</t>
   </si>
   <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
-  </si>
-  <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>11111003159</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +494,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -506,16 +506,16 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>32039201</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6F5CE9-C85A-490C-ABBF-A160C504609C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91FCE6-1BFD-4220-AD55-C16518A09B7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,16 +99,16 @@
     <t>09/04/2021</t>
   </si>
   <si>
-    <t>26/04/2021</t>
-  </si>
-  <si>
-    <t>11111003159</t>
-  </si>
-  <si>
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>19/05/2021</t>
+  </si>
+  <si>
+    <t>11111003252</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>21</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91FCE6-1BFD-4220-AD55-C16518A09B7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5013C1-451C-401B-AE51-8B741AE86832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,10 +105,10 @@
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>19/05/2021</t>
-  </si>
-  <si>
-    <t>11111003252</t>
+    <t>11111003260</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>21</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5013C1-451C-401B-AE51-8B741AE86832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7769B5E-416B-4892-84F6-70075361D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,12 +93,6 @@
     <t>12:00</t>
   </si>
   <si>
-    <t xml:space="preserve">11111003131 </t>
-  </si>
-  <si>
-    <t>09/04/2021</t>
-  </si>
-  <si>
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
@@ -109,6 +103,12 @@
   </si>
   <si>
     <t>20/05/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111003199 </t>
+  </si>
+  <si>
+    <t>31/05/2021</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>21</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>

--- a/SuraClaims/GeneracionSiniestroHogar.xlsx
+++ b/SuraClaims/GeneracionSiniestroHogar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7769B5E-416B-4892-84F6-70075361D450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB805AC-5F27-40D5-A537-A86205489B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,25 +90,25 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111003199 </t>
+  </si>
+  <si>
+    <t>31/05/2021</t>
+  </si>
+  <si>
+    <t>22/06/2021</t>
+  </si>
+  <si>
     <t>12:00</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
-  </si>
-  <si>
-    <t>11111003260</t>
-  </si>
-  <si>
-    <t>20/05/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111003199 </t>
-  </si>
-  <si>
-    <t>31/05/2021</t>
+    <t xml:space="preserve">11111003346 </t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -515,7 +515,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>32039201</v>
@@ -532,10 +532,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
